--- a/docs/df_high_risk.xlsx
+++ b/docs/df_high_risk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="77">
   <si>
     <t>id_client</t>
   </si>
@@ -242,774 +242,6 @@
   </si>
   <si>
     <t>churn_class</t>
-  </si>
-  <si>
-    <t>3612</t>
-  </si>
-  <si>
-    <t>3792</t>
-  </si>
-  <si>
-    <t>4558</t>
-  </si>
-  <si>
-    <t>3141</t>
-  </si>
-  <si>
-    <t>3615</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>2761</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>3216</t>
-  </si>
-  <si>
-    <t>2339</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>6970</t>
-  </si>
-  <si>
-    <t>2291</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>5227</t>
-  </si>
-  <si>
-    <t>1651</t>
-  </si>
-  <si>
-    <t>5177</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>4062</t>
-  </si>
-  <si>
-    <t>3494</t>
-  </si>
-  <si>
-    <t>6346</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>5039</t>
-  </si>
-  <si>
-    <t>1456</t>
-  </si>
-  <si>
-    <t>6930</t>
-  </si>
-  <si>
-    <t>2683</t>
-  </si>
-  <si>
-    <t>3976</t>
-  </si>
-  <si>
-    <t>6488</t>
-  </si>
-  <si>
-    <t>5315</t>
-  </si>
-  <si>
-    <t>3544</t>
-  </si>
-  <si>
-    <t>6168</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>3303</t>
-  </si>
-  <si>
-    <t>3610</t>
-  </si>
-  <si>
-    <t>4916</t>
-  </si>
-  <si>
-    <t>2350</t>
-  </si>
-  <si>
-    <t>995</t>
-  </si>
-  <si>
-    <t>3749</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>6039</t>
-  </si>
-  <si>
-    <t>6033</t>
-  </si>
-  <si>
-    <t>4837</t>
-  </si>
-  <si>
-    <t>5498</t>
-  </si>
-  <si>
-    <t>5852</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>6599</t>
-  </si>
-  <si>
-    <t>1285</t>
-  </si>
-  <si>
-    <t>371</t>
-  </si>
-  <si>
-    <t>3978</t>
-  </si>
-  <si>
-    <t>4826</t>
-  </si>
-  <si>
-    <t>5483</t>
-  </si>
-  <si>
-    <t>6843</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>5025</t>
-  </si>
-  <si>
-    <t>5966</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>4269</t>
-  </si>
-  <si>
-    <t>2727</t>
-  </si>
-  <si>
-    <t>4039</t>
-  </si>
-  <si>
-    <t>3845</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>6926</t>
-  </si>
-  <si>
-    <t>1498</t>
-  </si>
-  <si>
-    <t>4072</t>
-  </si>
-  <si>
-    <t>5738</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>3102</t>
-  </si>
-  <si>
-    <t>5411</t>
-  </si>
-  <si>
-    <t>6240</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>6082</t>
-  </si>
-  <si>
-    <t>3805</t>
-  </si>
-  <si>
-    <t>5872</t>
-  </si>
-  <si>
-    <t>5788</t>
-  </si>
-  <si>
-    <t>3356</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>4597</t>
-  </si>
-  <si>
-    <t>1822</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>6884</t>
-  </si>
-  <si>
-    <t>3918</t>
-  </si>
-  <si>
-    <t>6952</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>2527</t>
-  </si>
-  <si>
-    <t>5547</t>
-  </si>
-  <si>
-    <t>5458</t>
-  </si>
-  <si>
-    <t>1821</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>5351</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>6999</t>
-  </si>
-  <si>
-    <t>1790</t>
-  </si>
-  <si>
-    <t>3682</t>
-  </si>
-  <si>
-    <t>6562</t>
-  </si>
-  <si>
-    <t>4283</t>
-  </si>
-  <si>
-    <t>3775</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>1176</t>
-  </si>
-  <si>
-    <t>2238</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>3824</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>5146</t>
-  </si>
-  <si>
-    <t>1730</t>
-  </si>
-  <si>
-    <t>1555</t>
-  </si>
-  <si>
-    <t>1799</t>
-  </si>
-  <si>
-    <t>6663</t>
-  </si>
-  <si>
-    <t>4495</t>
-  </si>
-  <si>
-    <t>4671</t>
-  </si>
-  <si>
-    <t>3325</t>
-  </si>
-  <si>
-    <t>6385</t>
-  </si>
-  <si>
-    <t>5006</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>5213</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>5250</t>
-  </si>
-  <si>
-    <t>3753</t>
-  </si>
-  <si>
-    <t>2184</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>6486</t>
-  </si>
-  <si>
-    <t>3587</t>
-  </si>
-  <si>
-    <t>6654</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1472</t>
-  </si>
-  <si>
-    <t>2140</t>
-  </si>
-  <si>
-    <t>4448</t>
-  </si>
-  <si>
-    <t>5706</t>
-  </si>
-  <si>
-    <t>5368</t>
-  </si>
-  <si>
-    <t>2296</t>
-  </si>
-  <si>
-    <t>1575</t>
-  </si>
-  <si>
-    <t>5493</t>
-  </si>
-  <si>
-    <t>6305</t>
-  </si>
-  <si>
-    <t>6687</t>
-  </si>
-  <si>
-    <t>4174</t>
-  </si>
-  <si>
-    <t>6515</t>
-  </si>
-  <si>
-    <t>5214</t>
-  </si>
-  <si>
-    <t>3229</t>
-  </si>
-  <si>
-    <t>3202</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1742</t>
-  </si>
-  <si>
-    <t>5934</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>5863</t>
-  </si>
-  <si>
-    <t>985</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>2753</t>
-  </si>
-  <si>
-    <t>2770</t>
-  </si>
-  <si>
-    <t>6030</t>
-  </si>
-  <si>
-    <t>2619</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>6894</t>
-  </si>
-  <si>
-    <t>3772</t>
-  </si>
-  <si>
-    <t>5549</t>
-  </si>
-  <si>
-    <t>3175</t>
-  </si>
-  <si>
-    <t>4330</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>1469</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>4723</t>
-  </si>
-  <si>
-    <t>6495</t>
-  </si>
-  <si>
-    <t>4904</t>
-  </si>
-  <si>
-    <t>4442</t>
-  </si>
-  <si>
-    <t>5670</t>
-  </si>
-  <si>
-    <t>6839</t>
-  </si>
-  <si>
-    <t>2521</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>5783</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>6267</t>
-  </si>
-  <si>
-    <t>3360</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>2336</t>
-  </si>
-  <si>
-    <t>2485</t>
-  </si>
-  <si>
-    <t>1319</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>2265</t>
-  </si>
-  <si>
-    <t>3350</t>
-  </si>
-  <si>
-    <t>5105</t>
-  </si>
-  <si>
-    <t>4459</t>
-  </si>
-  <si>
-    <t>3455</t>
-  </si>
-  <si>
-    <t>4369</t>
-  </si>
-  <si>
-    <t>1251</t>
-  </si>
-  <si>
-    <t>6980</t>
-  </si>
-  <si>
-    <t>2954</t>
-  </si>
-  <si>
-    <t>1948</t>
-  </si>
-  <si>
-    <t>3799</t>
-  </si>
-  <si>
-    <t>6620</t>
-  </si>
-  <si>
-    <t>6971</t>
-  </si>
-  <si>
-    <t>2812</t>
-  </si>
-  <si>
-    <t>5640</t>
-  </si>
-  <si>
-    <t>2875</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>6936</t>
-  </si>
-  <si>
-    <t>6868</t>
-  </si>
-  <si>
-    <t>7001</t>
-  </si>
-  <si>
-    <t>4997</t>
-  </si>
-  <si>
-    <t>1577</t>
-  </si>
-  <si>
-    <t>5724</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>3551</t>
-  </si>
-  <si>
-    <t>3917</t>
-  </si>
-  <si>
-    <t>761</t>
-  </si>
-  <si>
-    <t>3188</t>
-  </si>
-  <si>
-    <t>3276</t>
-  </si>
-  <si>
-    <t>2577</t>
-  </si>
-  <si>
-    <t>3831</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>5658</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t>1621</t>
-  </si>
-  <si>
-    <t>6680</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>3212</t>
-  </si>
-  <si>
-    <t>4458</t>
-  </si>
-  <si>
-    <t>3136</t>
-  </si>
-  <si>
-    <t>1579</t>
-  </si>
-  <si>
-    <t>3338</t>
-  </si>
-  <si>
-    <t>875</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>2236</t>
-  </si>
-  <si>
-    <t>3159</t>
-  </si>
-  <si>
-    <t>5463</t>
-  </si>
-  <si>
-    <t>3885</t>
-  </si>
-  <si>
-    <t>4664</t>
-  </si>
-  <si>
-    <t>5718</t>
-  </si>
-  <si>
-    <t>2361</t>
-  </si>
-  <si>
-    <t>834</t>
-  </si>
-  <si>
-    <t>2083</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>5371</t>
-  </si>
-  <si>
-    <t>4621</t>
-  </si>
-  <si>
-    <t>4956</t>
-  </si>
-  <si>
-    <t>6186</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>6866</t>
-  </si>
-  <si>
-    <t>6712</t>
-  </si>
-  <si>
-    <t>5984</t>
-  </si>
-  <si>
-    <t>2294</t>
-  </si>
-  <si>
-    <t>3458</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>3843</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>3172</t>
-  </si>
-  <si>
-    <t>322</t>
   </si>
   <si>
     <t>Very High Risk</t>
@@ -1607,8 +839,8 @@
       </c>
     </row>
     <row r="2" spans="1:76">
-      <c r="A2" t="s">
-        <v>76</v>
+      <c r="A2">
+        <v>3612</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1830,12 +1062,12 @@
         <v>0.8779107928276062</v>
       </c>
       <c r="BX2" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" t="s">
-        <v>77</v>
+      <c r="A3">
+        <v>3792</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2057,12 +1289,12 @@
         <v>0.9943611621856689</v>
       </c>
       <c r="BX3" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:76">
-      <c r="A4" t="s">
-        <v>78</v>
+      <c r="A4">
+        <v>4558</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2284,12 +1516,12 @@
         <v>0.8615119457244873</v>
       </c>
       <c r="BX4" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:76">
-      <c r="A5" t="s">
-        <v>79</v>
+      <c r="A5">
+        <v>3141</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2511,12 +1743,12 @@
         <v>0.9938977360725403</v>
       </c>
       <c r="BX5" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:76">
-      <c r="A6" t="s">
-        <v>80</v>
+      <c r="A6">
+        <v>3615</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -2738,12 +1970,12 @@
         <v>0.9907463788986206</v>
       </c>
       <c r="BX6" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:76">
-      <c r="A7" t="s">
-        <v>81</v>
+      <c r="A7">
+        <v>1325</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -2965,12 +2197,12 @@
         <v>0.9566004276275635</v>
       </c>
       <c r="BX7" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:76">
-      <c r="A8" t="s">
-        <v>82</v>
+      <c r="A8">
+        <v>2761</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3192,12 +2424,12 @@
         <v>0.9784209132194519</v>
       </c>
       <c r="BX8" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:76">
-      <c r="A9" t="s">
-        <v>83</v>
+      <c r="A9">
+        <v>1008</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -3419,12 +2651,12 @@
         <v>0.830120861530304</v>
       </c>
       <c r="BX9" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:76">
-      <c r="A10" t="s">
-        <v>84</v>
+      <c r="A10">
+        <v>3216</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -3646,12 +2878,12 @@
         <v>0.8416742086410522</v>
       </c>
       <c r="BX10" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:76">
-      <c r="A11" t="s">
-        <v>85</v>
+      <c r="A11">
+        <v>2339</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3873,12 +3105,12 @@
         <v>0.9923642873764038</v>
       </c>
       <c r="BX11" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:76">
-      <c r="A12" t="s">
-        <v>86</v>
+      <c r="A12">
+        <v>475</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4100,12 +3332,12 @@
         <v>0.9719080924987793</v>
       </c>
       <c r="BX12" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:76">
-      <c r="A13" t="s">
-        <v>87</v>
+      <c r="A13">
+        <v>6970</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -4327,12 +3559,12 @@
         <v>0.9611476063728333</v>
       </c>
       <c r="BX13" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:76">
-      <c r="A14" t="s">
-        <v>88</v>
+      <c r="A14">
+        <v>2291</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -4554,12 +3786,12 @@
         <v>0.9987542629241943</v>
       </c>
       <c r="BX14" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:76">
-      <c r="A15" t="s">
-        <v>89</v>
+      <c r="A15">
+        <v>1970</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -4781,12 +4013,12 @@
         <v>0.8498854041099548</v>
       </c>
       <c r="BX15" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:76">
-      <c r="A16" t="s">
-        <v>90</v>
+      <c r="A16">
+        <v>5227</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5008,12 +4240,12 @@
         <v>0.8358681201934814</v>
       </c>
       <c r="BX16" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:76">
-      <c r="A17" t="s">
-        <v>91</v>
+      <c r="A17">
+        <v>1651</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5235,12 +4467,12 @@
         <v>0.8744214177131653</v>
       </c>
       <c r="BX17" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:76">
-      <c r="A18" t="s">
-        <v>92</v>
+      <c r="A18">
+        <v>5177</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -5462,12 +4694,12 @@
         <v>0.9151394963264465</v>
       </c>
       <c r="BX18" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:76">
-      <c r="A19" t="s">
-        <v>93</v>
+      <c r="A19">
+        <v>272</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5689,12 +4921,12 @@
         <v>0.9070585370063782</v>
       </c>
       <c r="BX19" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:76">
-      <c r="A20" t="s">
-        <v>94</v>
+      <c r="A20">
+        <v>4062</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5916,12 +5148,12 @@
         <v>0.9970821738243103</v>
       </c>
       <c r="BX20" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:76">
-      <c r="A21" t="s">
-        <v>95</v>
+      <c r="A21">
+        <v>3494</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -6143,12 +5375,12 @@
         <v>0.9970916509628296</v>
       </c>
       <c r="BX21" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:76">
-      <c r="A22" t="s">
-        <v>96</v>
+      <c r="A22">
+        <v>6346</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -6370,12 +5602,12 @@
         <v>0.9889563918113708</v>
       </c>
       <c r="BX22" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:76">
-      <c r="A23" t="s">
-        <v>97</v>
+      <c r="A23">
+        <v>82</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -6597,12 +5829,12 @@
         <v>0.990852415561676</v>
       </c>
       <c r="BX23" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:76">
-      <c r="A24" t="s">
-        <v>98</v>
+      <c r="A24">
+        <v>5039</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -6824,12 +6056,12 @@
         <v>0.9669091701507568</v>
       </c>
       <c r="BX24" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:76">
-      <c r="A25" t="s">
-        <v>99</v>
+      <c r="A25">
+        <v>1456</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -7051,12 +6283,12 @@
         <v>0.9055718183517456</v>
       </c>
       <c r="BX25" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:76">
-      <c r="A26" t="s">
-        <v>100</v>
+      <c r="A26">
+        <v>6930</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -7278,12 +6510,12 @@
         <v>0.9982684850692749</v>
       </c>
       <c r="BX26" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:76">
-      <c r="A27" t="s">
-        <v>101</v>
+      <c r="A27">
+        <v>2683</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -7505,12 +6737,12 @@
         <v>0.8155461549758911</v>
       </c>
       <c r="BX27" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:76">
-      <c r="A28" t="s">
-        <v>102</v>
+      <c r="A28">
+        <v>3976</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -7732,12 +6964,12 @@
         <v>0.926421046257019</v>
       </c>
       <c r="BX28" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:76">
-      <c r="A29" t="s">
-        <v>103</v>
+      <c r="A29">
+        <v>6488</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -7959,12 +7191,12 @@
         <v>0.9490156173706055</v>
       </c>
       <c r="BX29" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:76">
-      <c r="A30" t="s">
-        <v>104</v>
+      <c r="A30">
+        <v>5315</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -8186,12 +7418,12 @@
         <v>0.8757094144821167</v>
       </c>
       <c r="BX30" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:76">
-      <c r="A31" t="s">
-        <v>105</v>
+      <c r="A31">
+        <v>3544</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -8413,12 +7645,12 @@
         <v>0.8662880659103394</v>
       </c>
       <c r="BX31" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:76">
-      <c r="A32" t="s">
-        <v>106</v>
+      <c r="A32">
+        <v>6168</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -8640,12 +7872,12 @@
         <v>0.9990853071212769</v>
       </c>
       <c r="BX32" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:76">
-      <c r="A33" t="s">
-        <v>107</v>
+      <c r="A33">
+        <v>1149</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -8867,12 +8099,12 @@
         <v>0.9969833493232727</v>
       </c>
       <c r="BX33" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:76">
-      <c r="A34" t="s">
-        <v>108</v>
+      <c r="A34">
+        <v>3303</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -9094,12 +8326,12 @@
         <v>0.9962532520294189</v>
       </c>
       <c r="BX34" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:76">
-      <c r="A35" t="s">
-        <v>109</v>
+      <c r="A35">
+        <v>3610</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -9321,12 +8553,12 @@
         <v>0.9052169919013977</v>
       </c>
       <c r="BX35" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:76">
-      <c r="A36" t="s">
-        <v>110</v>
+      <c r="A36">
+        <v>4916</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -9548,12 +8780,12 @@
         <v>0.8370148539543152</v>
       </c>
       <c r="BX36" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:76">
-      <c r="A37" t="s">
-        <v>111</v>
+      <c r="A37">
+        <v>2350</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -9775,12 +9007,12 @@
         <v>0.9174864292144775</v>
       </c>
       <c r="BX37" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:76">
-      <c r="A38" t="s">
-        <v>112</v>
+      <c r="A38">
+        <v>995</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -10002,12 +9234,12 @@
         <v>0.9768553972244263</v>
       </c>
       <c r="BX38" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:76">
-      <c r="A39" t="s">
-        <v>113</v>
+      <c r="A39">
+        <v>3749</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -10229,12 +9461,12 @@
         <v>0.9936578869819641</v>
       </c>
       <c r="BX39" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:76">
-      <c r="A40" t="s">
-        <v>114</v>
+      <c r="A40">
+        <v>651</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -10456,12 +9688,12 @@
         <v>0.8281763195991516</v>
       </c>
       <c r="BX40" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:76">
-      <c r="A41" t="s">
-        <v>115</v>
+      <c r="A41">
+        <v>6039</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -10683,12 +9915,12 @@
         <v>0.8978878855705261</v>
       </c>
       <c r="BX41" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:76">
-      <c r="A42" t="s">
-        <v>116</v>
+      <c r="A42">
+        <v>6033</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -10910,12 +10142,12 @@
         <v>0.8533908128738403</v>
       </c>
       <c r="BX42" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:76">
-      <c r="A43" t="s">
-        <v>117</v>
+      <c r="A43">
+        <v>4837</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -11137,12 +10369,12 @@
         <v>0.9319986701011658</v>
       </c>
       <c r="BX43" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:76">
-      <c r="A44" t="s">
-        <v>118</v>
+      <c r="A44">
+        <v>5498</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -11364,12 +10596,12 @@
         <v>0.9956545829772949</v>
       </c>
       <c r="BX44" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:76">
-      <c r="A45" t="s">
-        <v>119</v>
+      <c r="A45">
+        <v>5852</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -11591,12 +10823,12 @@
         <v>0.9454110860824585</v>
       </c>
       <c r="BX45" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:76">
-      <c r="A46" t="s">
-        <v>120</v>
+      <c r="A46">
+        <v>2869</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -11818,12 +11050,12 @@
         <v>0.9552096128463745</v>
       </c>
       <c r="BX46" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:76">
-      <c r="A47" t="s">
-        <v>121</v>
+      <c r="A47">
+        <v>6599</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -12045,12 +11277,12 @@
         <v>0.9956888556480408</v>
       </c>
       <c r="BX47" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:76">
-      <c r="A48" t="s">
-        <v>122</v>
+      <c r="A48">
+        <v>1285</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -12272,12 +11504,12 @@
         <v>0.9915704727172852</v>
       </c>
       <c r="BX48" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:76">
-      <c r="A49" t="s">
-        <v>123</v>
+      <c r="A49">
+        <v>371</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -12499,12 +11731,12 @@
         <v>0.9391985535621643</v>
       </c>
       <c r="BX49" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:76">
-      <c r="A50" t="s">
-        <v>124</v>
+      <c r="A50">
+        <v>3978</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -12726,12 +11958,12 @@
         <v>0.868930459022522</v>
       </c>
       <c r="BX50" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:76">
-      <c r="A51" t="s">
-        <v>125</v>
+      <c r="A51">
+        <v>4826</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -12953,12 +12185,12 @@
         <v>0.9880412817001343</v>
       </c>
       <c r="BX51" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:76">
-      <c r="A52" t="s">
-        <v>126</v>
+      <c r="A52">
+        <v>5483</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -13180,12 +12412,12 @@
         <v>0.9761378169059753</v>
       </c>
       <c r="BX52" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:76">
-      <c r="A53" t="s">
-        <v>127</v>
+      <c r="A53">
+        <v>6843</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -13407,12 +12639,12 @@
         <v>0.9278450608253479</v>
       </c>
       <c r="BX53" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:76">
-      <c r="A54" t="s">
-        <v>128</v>
+      <c r="A54">
+        <v>1206</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -13634,12 +12866,12 @@
         <v>0.9440286159515381</v>
       </c>
       <c r="BX54" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:76">
-      <c r="A55" t="s">
-        <v>129</v>
+      <c r="A55">
+        <v>1533</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -13861,12 +13093,12 @@
         <v>0.8886061310768127</v>
       </c>
       <c r="BX55" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:76">
-      <c r="A56" t="s">
-        <v>130</v>
+      <c r="A56">
+        <v>5025</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -14088,12 +13320,12 @@
         <v>0.8879610300064087</v>
       </c>
       <c r="BX56" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:76">
-      <c r="A57" t="s">
-        <v>131</v>
+      <c r="A57">
+        <v>5966</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -14315,12 +13547,12 @@
         <v>0.9601767063140869</v>
       </c>
       <c r="BX57" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:76">
-      <c r="A58" t="s">
-        <v>132</v>
+      <c r="A58">
+        <v>1402</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -14542,12 +13774,12 @@
         <v>0.9856479167938232</v>
       </c>
       <c r="BX58" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:76">
-      <c r="A59" t="s">
-        <v>133</v>
+      <c r="A59">
+        <v>4269</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -14769,12 +14001,12 @@
         <v>0.9832841157913208</v>
       </c>
       <c r="BX59" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:76">
-      <c r="A60" t="s">
-        <v>134</v>
+      <c r="A60">
+        <v>2727</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -14996,12 +14228,12 @@
         <v>0.909452497959137</v>
       </c>
       <c r="BX60" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:76">
-      <c r="A61" t="s">
-        <v>135</v>
+      <c r="A61">
+        <v>4039</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -15223,12 +14455,12 @@
         <v>0.8756876587867737</v>
       </c>
       <c r="BX61" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:76">
-      <c r="A62" t="s">
-        <v>136</v>
+      <c r="A62">
+        <v>3845</v>
       </c>
       <c r="C62" t="b">
         <v>0</v>
@@ -15450,12 +14682,12 @@
         <v>0.9980003237724304</v>
       </c>
       <c r="BX62" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:76">
-      <c r="A63" t="s">
-        <v>137</v>
+      <c r="A63">
+        <v>47</v>
       </c>
       <c r="C63" t="b">
         <v>0</v>
@@ -15677,12 +14909,12 @@
         <v>0.9982713460922241</v>
       </c>
       <c r="BX63" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:76">
-      <c r="A64" t="s">
-        <v>138</v>
+      <c r="A64">
+        <v>6926</v>
       </c>
       <c r="C64" t="b">
         <v>0</v>
@@ -15904,12 +15136,12 @@
         <v>0.983371376991272</v>
       </c>
       <c r="BX64" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:76">
-      <c r="A65" t="s">
-        <v>139</v>
+      <c r="A65">
+        <v>1498</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -16131,12 +15363,12 @@
         <v>0.8507228493690491</v>
       </c>
       <c r="BX65" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:76">
-      <c r="A66" t="s">
-        <v>140</v>
+      <c r="A66">
+        <v>4072</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -16358,12 +15590,12 @@
         <v>0.8698610067367554</v>
       </c>
       <c r="BX66" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:76">
-      <c r="A67" t="s">
-        <v>141</v>
+      <c r="A67">
+        <v>5738</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -16585,12 +15817,12 @@
         <v>0.9133171439170837</v>
       </c>
       <c r="BX67" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:76">
-      <c r="A68" t="s">
-        <v>142</v>
+      <c r="A68">
+        <v>383</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -16812,12 +16044,12 @@
         <v>0.8195860981941223</v>
       </c>
       <c r="BX68" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:76">
-      <c r="A69" t="s">
-        <v>143</v>
+      <c r="A69">
+        <v>3102</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -17039,12 +16271,12 @@
         <v>0.9677203297615051</v>
       </c>
       <c r="BX69" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:76">
-      <c r="A70" t="s">
-        <v>144</v>
+      <c r="A70">
+        <v>5411</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -17266,12 +16498,12 @@
         <v>0.8967697024345398</v>
       </c>
       <c r="BX70" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:76">
-      <c r="A71" t="s">
-        <v>145</v>
+      <c r="A71">
+        <v>6240</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -17493,12 +16725,12 @@
         <v>0.954474151134491</v>
       </c>
       <c r="BX71" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:76">
-      <c r="A72" t="s">
-        <v>146</v>
+      <c r="A72">
+        <v>1014</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -17720,12 +16952,12 @@
         <v>0.9435684084892273</v>
       </c>
       <c r="BX72" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:76">
-      <c r="A73" t="s">
-        <v>147</v>
+      <c r="A73">
+        <v>6082</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -17947,12 +17179,12 @@
         <v>0.9802834391593933</v>
       </c>
       <c r="BX73" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:76">
-      <c r="A74" t="s">
-        <v>148</v>
+      <c r="A74">
+        <v>3805</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -18174,12 +17406,12 @@
         <v>0.8709170818328857</v>
       </c>
       <c r="BX74" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:76">
-      <c r="A75" t="s">
-        <v>149</v>
+      <c r="A75">
+        <v>5872</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -18401,12 +17633,12 @@
         <v>0.9861016273498535</v>
       </c>
       <c r="BX75" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:76">
-      <c r="A76" t="s">
-        <v>150</v>
+      <c r="A76">
+        <v>5788</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -18628,12 +17860,12 @@
         <v>0.8233746886253357</v>
       </c>
       <c r="BX76" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:76">
-      <c r="A77" t="s">
-        <v>151</v>
+      <c r="A77">
+        <v>3356</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -18855,12 +18087,12 @@
         <v>0.9848805665969849</v>
       </c>
       <c r="BX77" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:76">
-      <c r="A78" t="s">
-        <v>152</v>
+      <c r="A78">
+        <v>1784</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -19082,12 +18314,12 @@
         <v>0.9665138125419617</v>
       </c>
       <c r="BX78" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:76">
-      <c r="A79" t="s">
-        <v>153</v>
+      <c r="A79">
+        <v>4597</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -19309,12 +18541,12 @@
         <v>0.9848496913909912</v>
       </c>
       <c r="BX79" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:76">
-      <c r="A80" t="s">
-        <v>154</v>
+      <c r="A80">
+        <v>1822</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -19536,12 +18768,12 @@
         <v>0.8717812895774841</v>
       </c>
       <c r="BX80" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:76">
-      <c r="A81" t="s">
-        <v>155</v>
+      <c r="A81">
+        <v>2224</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -19763,12 +18995,12 @@
         <v>0.9951317310333252</v>
       </c>
       <c r="BX81" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:76">
-      <c r="A82" t="s">
-        <v>156</v>
+      <c r="A82">
+        <v>1043</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -19990,12 +19222,12 @@
         <v>0.9898712038993835</v>
       </c>
       <c r="BX82" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:76">
-      <c r="A83" t="s">
-        <v>157</v>
+      <c r="A83">
+        <v>6884</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -20217,12 +19449,12 @@
         <v>0.9941036105155945</v>
       </c>
       <c r="BX83" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:76">
-      <c r="A84" t="s">
-        <v>158</v>
+      <c r="A84">
+        <v>3918</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -20444,12 +19676,12 @@
         <v>0.8919952511787415</v>
       </c>
       <c r="BX84" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:76">
-      <c r="A85" t="s">
-        <v>159</v>
+      <c r="A85">
+        <v>6952</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -20671,12 +19903,12 @@
         <v>0.9024472236633301</v>
       </c>
       <c r="BX85" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:76">
-      <c r="A86" t="s">
-        <v>160</v>
+      <c r="A86">
+        <v>646</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -20898,12 +20130,12 @@
         <v>0.9783127307891846</v>
       </c>
       <c r="BX86" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:76">
-      <c r="A87" t="s">
-        <v>161</v>
+      <c r="A87">
+        <v>666</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -21125,12 +20357,12 @@
         <v>0.922166645526886</v>
       </c>
       <c r="BX87" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:76">
-      <c r="A88" t="s">
-        <v>162</v>
+      <c r="A88">
+        <v>274</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -21352,12 +20584,12 @@
         <v>0.921596884727478</v>
       </c>
       <c r="BX88" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:76">
-      <c r="A89" t="s">
-        <v>163</v>
+      <c r="A89">
+        <v>2527</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -21579,12 +20811,12 @@
         <v>0.9106807112693787</v>
       </c>
       <c r="BX89" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:76">
-      <c r="A90" t="s">
-        <v>164</v>
+      <c r="A90">
+        <v>5547</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -21806,12 +21038,12 @@
         <v>0.9256939291954041</v>
       </c>
       <c r="BX90" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:76">
-      <c r="A91" t="s">
-        <v>165</v>
+      <c r="A91">
+        <v>5458</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -22033,12 +21265,12 @@
         <v>0.9545055627822876</v>
       </c>
       <c r="BX91" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:76">
-      <c r="A92" t="s">
-        <v>166</v>
+      <c r="A92">
+        <v>1821</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -22260,12 +21492,12 @@
         <v>0.8021605610847473</v>
       </c>
       <c r="BX92" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:76">
-      <c r="A93" t="s">
-        <v>167</v>
+      <c r="A93">
+        <v>3007</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -22487,12 +21719,12 @@
         <v>0.9964722394943237</v>
       </c>
       <c r="BX93" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:76">
-      <c r="A94" t="s">
-        <v>168</v>
+      <c r="A94">
+        <v>5351</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -22714,12 +21946,12 @@
         <v>0.8210850358009338</v>
       </c>
       <c r="BX94" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:76">
-      <c r="A95" t="s">
-        <v>169</v>
+      <c r="A95">
+        <v>639</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -22941,12 +22173,12 @@
         <v>0.8936271071434021</v>
       </c>
       <c r="BX95" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:76">
-      <c r="A96" t="s">
-        <v>170</v>
+      <c r="A96">
+        <v>6999</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -23168,12 +22400,12 @@
         <v>0.9585573077201843</v>
       </c>
       <c r="BX96" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:76">
-      <c r="A97" t="s">
-        <v>171</v>
+      <c r="A97">
+        <v>1790</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -23395,12 +22627,12 @@
         <v>0.9967417120933533</v>
       </c>
       <c r="BX97" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:76">
-      <c r="A98" t="s">
-        <v>172</v>
+      <c r="A98">
+        <v>3682</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -23622,12 +22854,12 @@
         <v>0.9982376098632812</v>
       </c>
       <c r="BX98" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:76">
-      <c r="A99" t="s">
-        <v>173</v>
+      <c r="A99">
+        <v>6562</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -23849,12 +23081,12 @@
         <v>0.9547199010848999</v>
       </c>
       <c r="BX99" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:76">
-      <c r="A100" t="s">
-        <v>174</v>
+      <c r="A100">
+        <v>4283</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -24076,12 +23308,12 @@
         <v>0.9256939291954041</v>
       </c>
       <c r="BX100" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:76">
-      <c r="A101" t="s">
-        <v>175</v>
+      <c r="A101">
+        <v>3775</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -24303,12 +23535,12 @@
         <v>0.9662122130393982</v>
       </c>
       <c r="BX101" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:76">
-      <c r="A102" t="s">
-        <v>176</v>
+      <c r="A102">
+        <v>126</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -24530,12 +23762,12 @@
         <v>0.9936596751213074</v>
       </c>
       <c r="BX102" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:76">
-      <c r="A103" t="s">
-        <v>177</v>
+      <c r="A103">
+        <v>1176</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -24757,12 +23989,12 @@
         <v>0.9850292801856995</v>
       </c>
       <c r="BX103" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:76">
-      <c r="A104" t="s">
-        <v>178</v>
+      <c r="A104">
+        <v>2238</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -24984,12 +24216,12 @@
         <v>0.8337957262992859</v>
       </c>
       <c r="BX104" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:76">
-      <c r="A105" t="s">
-        <v>179</v>
+      <c r="A105">
+        <v>489</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -25211,12 +24443,12 @@
         <v>0.952497661113739</v>
       </c>
       <c r="BX105" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:76">
-      <c r="A106" t="s">
-        <v>180</v>
+      <c r="A106">
+        <v>3824</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -25438,12 +24670,12 @@
         <v>0.8601272106170654</v>
       </c>
       <c r="BX106" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:76">
-      <c r="A107" t="s">
-        <v>181</v>
+      <c r="A107">
+        <v>1633</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -25665,12 +24897,12 @@
         <v>0.8259797096252441</v>
       </c>
       <c r="BX107" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:76">
-      <c r="A108" t="s">
-        <v>182</v>
+      <c r="A108">
+        <v>5146</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -25892,12 +25124,12 @@
         <v>0.8682675361633301</v>
       </c>
       <c r="BX108" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:76">
-      <c r="A109" t="s">
-        <v>183</v>
+      <c r="A109">
+        <v>1730</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -26119,12 +25351,12 @@
         <v>0.8686293363571167</v>
       </c>
       <c r="BX109" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:76">
-      <c r="A110" t="s">
-        <v>184</v>
+      <c r="A110">
+        <v>1555</v>
       </c>
       <c r="C110" t="b">
         <v>1</v>
@@ -26346,12 +25578,12 @@
         <v>0.9605892896652222</v>
       </c>
       <c r="BX110" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:76">
-      <c r="A111" t="s">
-        <v>185</v>
+      <c r="A111">
+        <v>1799</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -26573,12 +25805,12 @@
         <v>0.8993146419525146</v>
       </c>
       <c r="BX111" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:76">
-      <c r="A112" t="s">
-        <v>186</v>
+      <c r="A112">
+        <v>6663</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -26800,12 +26032,12 @@
         <v>0.9228817224502563</v>
       </c>
       <c r="BX112" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:76">
-      <c r="A113" t="s">
-        <v>187</v>
+      <c r="A113">
+        <v>4495</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -27027,12 +26259,12 @@
         <v>0.9967511892318726</v>
       </c>
       <c r="BX113" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="1:76">
-      <c r="A114" t="s">
-        <v>188</v>
+      <c r="A114">
+        <v>4671</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -27254,12 +26486,12 @@
         <v>0.8082205653190613</v>
       </c>
       <c r="BX114" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:76">
-      <c r="A115" t="s">
-        <v>189</v>
+      <c r="A115">
+        <v>3325</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -27481,12 +26713,12 @@
         <v>0.943755030632019</v>
       </c>
       <c r="BX115" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:76">
-      <c r="A116" t="s">
-        <v>190</v>
+      <c r="A116">
+        <v>6385</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -27708,12 +26940,12 @@
         <v>0.9191925525665283</v>
       </c>
       <c r="BX116" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:76">
-      <c r="A117" t="s">
-        <v>191</v>
+      <c r="A117">
+        <v>5006</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -27935,12 +27167,12 @@
         <v>0.988902747631073</v>
       </c>
       <c r="BX117" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:76">
-      <c r="A118" t="s">
-        <v>192</v>
+      <c r="A118">
+        <v>2103</v>
       </c>
       <c r="C118" t="b">
         <v>1</v>
@@ -28162,12 +27394,12 @@
         <v>0.8559525609016418</v>
       </c>
       <c r="BX118" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:76">
-      <c r="A119" t="s">
-        <v>193</v>
+      <c r="A119">
+        <v>891</v>
       </c>
       <c r="C119" t="b">
         <v>1</v>
@@ -28389,12 +27621,12 @@
         <v>0.9759272336959839</v>
       </c>
       <c r="BX119" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:76">
-      <c r="A120" t="s">
-        <v>194</v>
+      <c r="A120">
+        <v>5213</v>
       </c>
       <c r="C120" t="b">
         <v>1</v>
@@ -28616,12 +27848,12 @@
         <v>0.9379574060440063</v>
       </c>
       <c r="BX120" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:76">
-      <c r="A121" t="s">
-        <v>195</v>
+      <c r="A121">
+        <v>1360</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -28843,12 +28075,12 @@
         <v>0.893563985824585</v>
       </c>
       <c r="BX121" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:76">
-      <c r="A122" t="s">
-        <v>196</v>
+      <c r="A122">
+        <v>5250</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -29070,12 +28302,12 @@
         <v>0.8556322455406189</v>
       </c>
       <c r="BX122" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:76">
-      <c r="A123" t="s">
-        <v>197</v>
+      <c r="A123">
+        <v>3753</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -29297,12 +28529,12 @@
         <v>0.8117980360984802</v>
       </c>
       <c r="BX123" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="124" spans="1:76">
-      <c r="A124" t="s">
-        <v>198</v>
+      <c r="A124">
+        <v>2184</v>
       </c>
       <c r="C124" t="b">
         <v>0</v>
@@ -29524,12 +28756,12 @@
         <v>0.9742699861526489</v>
       </c>
       <c r="BX124" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:76">
-      <c r="A125" t="s">
-        <v>199</v>
+      <c r="A125">
+        <v>2282</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -29751,12 +28983,12 @@
         <v>0.9670089483261108</v>
       </c>
       <c r="BX125" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:76">
-      <c r="A126" t="s">
-        <v>200</v>
+      <c r="A126">
+        <v>6486</v>
       </c>
       <c r="C126" t="b">
         <v>1</v>
@@ -29978,12 +29210,12 @@
         <v>0.976148247718811</v>
       </c>
       <c r="BX126" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:76">
-      <c r="A127" t="s">
-        <v>201</v>
+      <c r="A127">
+        <v>3587</v>
       </c>
       <c r="C127" t="b">
         <v>0</v>
@@ -30205,12 +29437,12 @@
         <v>0.8308549523353577</v>
       </c>
       <c r="BX127" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:76">
-      <c r="A128" t="s">
-        <v>202</v>
+      <c r="A128">
+        <v>6654</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -30432,12 +29664,12 @@
         <v>0.8848740458488464</v>
       </c>
       <c r="BX128" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:76">
-      <c r="A129" t="s">
-        <v>203</v>
+      <c r="A129">
+        <v>275</v>
       </c>
       <c r="C129" t="b">
         <v>1</v>
@@ -30659,12 +29891,12 @@
         <v>0.8463781476020813</v>
       </c>
       <c r="BX129" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:76">
-      <c r="A130" t="s">
-        <v>204</v>
+      <c r="A130">
+        <v>1472</v>
       </c>
       <c r="C130" t="b">
         <v>1</v>
@@ -30886,12 +30118,12 @@
         <v>0.8526684045791626</v>
       </c>
       <c r="BX130" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:76">
-      <c r="A131" t="s">
-        <v>205</v>
+      <c r="A131">
+        <v>2140</v>
       </c>
       <c r="C131" t="b">
         <v>1</v>
@@ -31113,12 +30345,12 @@
         <v>0.9802753329277039</v>
       </c>
       <c r="BX131" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:76">
-      <c r="A132" t="s">
-        <v>206</v>
+      <c r="A132">
+        <v>4448</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -31340,12 +30572,12 @@
         <v>0.993829071521759</v>
       </c>
       <c r="BX132" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:76">
-      <c r="A133" t="s">
-        <v>207</v>
+      <c r="A133">
+        <v>5706</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -31567,12 +30799,12 @@
         <v>0.9947956204414368</v>
       </c>
       <c r="BX133" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:76">
-      <c r="A134" t="s">
-        <v>208</v>
+      <c r="A134">
+        <v>5368</v>
       </c>
       <c r="C134" t="b">
         <v>0</v>
@@ -31794,12 +31026,12 @@
         <v>0.9840835928916931</v>
       </c>
       <c r="BX134" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:76">
-      <c r="A135" t="s">
-        <v>209</v>
+      <c r="A135">
+        <v>2296</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -32021,12 +31253,12 @@
         <v>0.9353271722793579</v>
       </c>
       <c r="BX135" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:76">
-      <c r="A136" t="s">
-        <v>210</v>
+      <c r="A136">
+        <v>1575</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -32248,12 +31480,12 @@
         <v>0.9898871779441833</v>
       </c>
       <c r="BX136" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:76">
-      <c r="A137" t="s">
-        <v>211</v>
+      <c r="A137">
+        <v>5493</v>
       </c>
       <c r="C137" t="b">
         <v>1</v>
@@ -32475,12 +31707,12 @@
         <v>0.9002256989479065</v>
       </c>
       <c r="BX137" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:76">
-      <c r="A138" t="s">
-        <v>212</v>
+      <c r="A138">
+        <v>6305</v>
       </c>
       <c r="C138" t="b">
         <v>0</v>
@@ -32702,12 +31934,12 @@
         <v>0.9983738660812378</v>
       </c>
       <c r="BX138" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:76">
-      <c r="A139" t="s">
-        <v>213</v>
+      <c r="A139">
+        <v>6687</v>
       </c>
       <c r="C139" t="b">
         <v>1</v>
@@ -32929,12 +32161,12 @@
         <v>0.8309853672981262</v>
       </c>
       <c r="BX139" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:76">
-      <c r="A140" t="s">
-        <v>214</v>
+      <c r="A140">
+        <v>4174</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -33156,12 +32388,12 @@
         <v>0.8510611057281494</v>
       </c>
       <c r="BX140" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="141" spans="1:76">
-      <c r="A141" t="s">
-        <v>215</v>
+      <c r="A141">
+        <v>6515</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
@@ -33383,12 +32615,12 @@
         <v>0.9587748646736145</v>
       </c>
       <c r="BX141" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:76">
-      <c r="A142" t="s">
-        <v>216</v>
+      <c r="A142">
+        <v>5214</v>
       </c>
       <c r="C142" t="b">
         <v>1</v>
@@ -33610,12 +32842,12 @@
         <v>0.9086800217628479</v>
       </c>
       <c r="BX142" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:76">
-      <c r="A143" t="s">
-        <v>217</v>
+      <c r="A143">
+        <v>3229</v>
       </c>
       <c r="C143" t="b">
         <v>0</v>
@@ -33837,12 +33069,12 @@
         <v>0.8537842631340027</v>
       </c>
       <c r="BX143" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:76">
-      <c r="A144" t="s">
-        <v>218</v>
+      <c r="A144">
+        <v>3202</v>
       </c>
       <c r="C144" t="b">
         <v>0</v>
@@ -34064,12 +33296,12 @@
         <v>0.9110194444656372</v>
       </c>
       <c r="BX144" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:76">
-      <c r="A145" t="s">
-        <v>219</v>
+      <c r="A145">
+        <v>53</v>
       </c>
       <c r="C145" t="b">
         <v>1</v>
@@ -34291,12 +33523,12 @@
         <v>0.9060988426208496</v>
       </c>
       <c r="BX145" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:76">
-      <c r="A146" t="s">
-        <v>220</v>
+      <c r="A146">
+        <v>1742</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -34518,12 +33750,12 @@
         <v>0.8122996687889099</v>
       </c>
       <c r="BX146" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:76">
-      <c r="A147" t="s">
-        <v>221</v>
+      <c r="A147">
+        <v>5934</v>
       </c>
       <c r="C147" t="b">
         <v>1</v>
@@ -34745,12 +33977,12 @@
         <v>0.9946730732917786</v>
       </c>
       <c r="BX147" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:76">
-      <c r="A148" t="s">
-        <v>222</v>
+      <c r="A148">
+        <v>1070</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -34972,12 +34204,12 @@
         <v>0.9966248273849487</v>
       </c>
       <c r="BX148" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:76">
-      <c r="A149" t="s">
-        <v>223</v>
+      <c r="A149">
+        <v>5863</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -35199,12 +34431,12 @@
         <v>0.992059588432312</v>
       </c>
       <c r="BX149" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:76">
-      <c r="A150" t="s">
-        <v>224</v>
+      <c r="A150">
+        <v>985</v>
       </c>
       <c r="C150" t="b">
         <v>1</v>
@@ -35426,12 +34658,12 @@
         <v>0.9800357222557068</v>
       </c>
       <c r="BX150" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:76">
-      <c r="A151" t="s">
-        <v>225</v>
+      <c r="A151">
+        <v>6002</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
@@ -35653,12 +34885,12 @@
         <v>0.864504873752594</v>
       </c>
       <c r="BX151" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:76">
-      <c r="A152" t="s">
-        <v>226</v>
+      <c r="A152">
+        <v>2753</v>
       </c>
       <c r="C152" t="b">
         <v>0</v>
@@ -35880,12 +35112,12 @@
         <v>0.9964219331741333</v>
       </c>
       <c r="BX152" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:76">
-      <c r="A153" t="s">
-        <v>227</v>
+      <c r="A153">
+        <v>2770</v>
       </c>
       <c r="C153" t="b">
         <v>1</v>
@@ -36107,12 +35339,12 @@
         <v>0.9457026124000549</v>
       </c>
       <c r="BX153" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:76">
-      <c r="A154" t="s">
-        <v>228</v>
+      <c r="A154">
+        <v>6030</v>
       </c>
       <c r="C154" t="b">
         <v>0</v>
@@ -36334,12 +35566,12 @@
         <v>0.930907130241394</v>
       </c>
       <c r="BX154" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:76">
-      <c r="A155" t="s">
-        <v>229</v>
+      <c r="A155">
+        <v>2619</v>
       </c>
       <c r="C155" t="b">
         <v>0</v>
@@ -36561,12 +35793,12 @@
         <v>0.9942561984062195</v>
       </c>
       <c r="BX155" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:76">
-      <c r="A156" t="s">
-        <v>230</v>
+      <c r="A156">
+        <v>677</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -36788,12 +36020,12 @@
         <v>0.9926322102546692</v>
       </c>
       <c r="BX156" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:76">
-      <c r="A157" t="s">
-        <v>231</v>
+      <c r="A157">
+        <v>6894</v>
       </c>
       <c r="C157" t="b">
         <v>1</v>
@@ -37015,12 +36247,12 @@
         <v>0.9928215146064758</v>
       </c>
       <c r="BX157" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:76">
-      <c r="A158" t="s">
-        <v>232</v>
+      <c r="A158">
+        <v>3772</v>
       </c>
       <c r="C158" t="b">
         <v>1</v>
@@ -37242,12 +36474,12 @@
         <v>0.9963116049766541</v>
       </c>
       <c r="BX158" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:76">
-      <c r="A159" t="s">
-        <v>233</v>
+      <c r="A159">
+        <v>5549</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -37469,12 +36701,12 @@
         <v>0.8049750328063965</v>
       </c>
       <c r="BX159" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:76">
-      <c r="A160" t="s">
-        <v>234</v>
+      <c r="A160">
+        <v>3175</v>
       </c>
       <c r="C160" t="b">
         <v>1</v>
@@ -37696,12 +36928,12 @@
         <v>0.9905027151107788</v>
       </c>
       <c r="BX160" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:76">
-      <c r="A161" t="s">
-        <v>235</v>
+      <c r="A161">
+        <v>4330</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -37923,12 +37155,12 @@
         <v>0.9448149800300598</v>
       </c>
       <c r="BX161" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:76">
-      <c r="A162" t="s">
-        <v>236</v>
+      <c r="A162">
+        <v>64</v>
       </c>
       <c r="C162" t="b">
         <v>0</v>
@@ -38150,12 +37382,12 @@
         <v>0.9910160303115845</v>
       </c>
       <c r="BX162" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:76">
-      <c r="A163" t="s">
-        <v>237</v>
+      <c r="A163">
+        <v>2570</v>
       </c>
       <c r="C163" t="b">
         <v>1</v>
@@ -38377,12 +37609,12 @@
         <v>0.807770848274231</v>
       </c>
       <c r="BX163" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:76">
-      <c r="A164" t="s">
-        <v>238</v>
+      <c r="A164">
+        <v>1469</v>
       </c>
       <c r="C164" t="b">
         <v>0</v>
@@ -38604,12 +37836,12 @@
         <v>0.971282422542572</v>
       </c>
       <c r="BX164" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165" spans="1:76">
-      <c r="A165" t="s">
-        <v>239</v>
+      <c r="A165">
+        <v>446</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -38831,12 +38063,12 @@
         <v>0.9944878220558167</v>
       </c>
       <c r="BX165" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:76">
-      <c r="A166" t="s">
-        <v>240</v>
+      <c r="A166">
+        <v>4723</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -39058,12 +38290,12 @@
         <v>0.8001610040664673</v>
       </c>
       <c r="BX166" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:76">
-      <c r="A167" t="s">
-        <v>241</v>
+      <c r="A167">
+        <v>6495</v>
       </c>
       <c r="C167" t="b">
         <v>0</v>
@@ -39285,12 +38517,12 @@
         <v>0.9609703421592712</v>
       </c>
       <c r="BX167" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:76">
-      <c r="A168" t="s">
-        <v>242</v>
+      <c r="A168">
+        <v>4904</v>
       </c>
       <c r="C168" t="b">
         <v>0</v>
@@ -39512,12 +38744,12 @@
         <v>0.8453527092933655</v>
       </c>
       <c r="BX168" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:76">
-      <c r="A169" t="s">
-        <v>243</v>
+      <c r="A169">
+        <v>4442</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
@@ -39739,12 +38971,12 @@
         <v>0.9973486661911011</v>
       </c>
       <c r="BX169" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="170" spans="1:76">
-      <c r="A170" t="s">
-        <v>244</v>
+      <c r="A170">
+        <v>5670</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -39966,12 +39198,12 @@
         <v>0.9637330174446106</v>
       </c>
       <c r="BX170" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:76">
-      <c r="A171" t="s">
-        <v>245</v>
+      <c r="A171">
+        <v>6839</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -40193,12 +39425,12 @@
         <v>0.8987981677055359</v>
       </c>
       <c r="BX171" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:76">
-      <c r="A172" t="s">
-        <v>246</v>
+      <c r="A172">
+        <v>2521</v>
       </c>
       <c r="C172" t="b">
         <v>1</v>
@@ -40420,12 +39652,12 @@
         <v>0.9955030083656311</v>
       </c>
       <c r="BX172" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:76">
-      <c r="A173" t="s">
-        <v>247</v>
+      <c r="A173">
+        <v>27</v>
       </c>
       <c r="C173" t="b">
         <v>1</v>
@@ -40647,12 +39879,12 @@
         <v>0.9953951239585876</v>
       </c>
       <c r="BX173" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:76">
-      <c r="A174" t="s">
-        <v>248</v>
+      <c r="A174">
+        <v>36</v>
       </c>
       <c r="C174" t="b">
         <v>0</v>
@@ -40874,12 +40106,12 @@
         <v>0.9662790894508362</v>
       </c>
       <c r="BX174" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175" spans="1:76">
-      <c r="A175" t="s">
-        <v>249</v>
+      <c r="A175">
+        <v>5783</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -41101,12 +40333,12 @@
         <v>0.9964158535003662</v>
       </c>
       <c r="BX175" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:76">
-      <c r="A176" t="s">
-        <v>250</v>
+      <c r="A176">
+        <v>622</v>
       </c>
       <c r="C176" t="b">
         <v>1</v>
@@ -41328,12 +40560,12 @@
         <v>0.8120574355125427</v>
       </c>
       <c r="BX176" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:76">
-      <c r="A177" t="s">
-        <v>251</v>
+      <c r="A177">
+        <v>6267</v>
       </c>
       <c r="C177" t="b">
         <v>0</v>
@@ -41555,12 +40787,12 @@
         <v>0.9422051310539246</v>
       </c>
       <c r="BX177" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:76">
-      <c r="A178" t="s">
-        <v>252</v>
+      <c r="A178">
+        <v>3360</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -41782,12 +41014,12 @@
         <v>0.8739733099937439</v>
       </c>
       <c r="BX178" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:76">
-      <c r="A179" t="s">
-        <v>253</v>
+      <c r="A179">
+        <v>4005</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -42009,12 +41241,12 @@
         <v>0.9265692830085754</v>
       </c>
       <c r="BX179" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="180" spans="1:76">
-      <c r="A180" t="s">
-        <v>254</v>
+      <c r="A180">
+        <v>2336</v>
       </c>
       <c r="C180" t="b">
         <v>1</v>
@@ -42236,12 +41468,12 @@
         <v>0.9953468441963196</v>
       </c>
       <c r="BX180" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:76">
-      <c r="A181" t="s">
-        <v>255</v>
+      <c r="A181">
+        <v>2485</v>
       </c>
       <c r="C181" t="b">
         <v>0</v>
@@ -42463,12 +41695,12 @@
         <v>0.8739733099937439</v>
       </c>
       <c r="BX181" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182" spans="1:76">
-      <c r="A182" t="s">
-        <v>256</v>
+      <c r="A182">
+        <v>1319</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -42690,12 +41922,12 @@
         <v>0.9836403727531433</v>
       </c>
       <c r="BX182" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:76">
-      <c r="A183" t="s">
-        <v>257</v>
+      <c r="A183">
+        <v>2207</v>
       </c>
       <c r="C183" t="b">
         <v>1</v>
@@ -42917,12 +42149,12 @@
         <v>0.992584228515625</v>
       </c>
       <c r="BX183" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:76">
-      <c r="A184" t="s">
-        <v>258</v>
+      <c r="A184">
+        <v>777</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -43144,12 +42376,12 @@
         <v>0.9909217953681946</v>
       </c>
       <c r="BX184" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:76">
-      <c r="A185" t="s">
-        <v>259</v>
+      <c r="A185">
+        <v>2265</v>
       </c>
       <c r="C185" t="b">
         <v>0</v>
@@ -43371,12 +42603,12 @@
         <v>0.8234709501266479</v>
       </c>
       <c r="BX185" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:76">
-      <c r="A186" t="s">
-        <v>260</v>
+      <c r="A186">
+        <v>3350</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -43598,12 +42830,12 @@
         <v>0.889622688293457</v>
       </c>
       <c r="BX186" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:76">
-      <c r="A187" t="s">
-        <v>261</v>
+      <c r="A187">
+        <v>5105</v>
       </c>
       <c r="C187" t="b">
         <v>1</v>
@@ -43825,12 +43057,12 @@
         <v>0.9847899079322815</v>
       </c>
       <c r="BX187" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:76">
-      <c r="A188" t="s">
-        <v>262</v>
+      <c r="A188">
+        <v>4459</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -44052,12 +43284,12 @@
         <v>0.9799636006355286</v>
       </c>
       <c r="BX188" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:76">
-      <c r="A189" t="s">
-        <v>263</v>
+      <c r="A189">
+        <v>3455</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -44279,12 +43511,12 @@
         <v>0.8712382912635803</v>
       </c>
       <c r="BX189" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:76">
-      <c r="A190" t="s">
-        <v>264</v>
+      <c r="A190">
+        <v>4369</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -44506,12 +43738,12 @@
         <v>0.9927069544792175</v>
       </c>
       <c r="BX190" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:76">
-      <c r="A191" t="s">
-        <v>265</v>
+      <c r="A191">
+        <v>1251</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -44733,12 +43965,12 @@
         <v>0.9969710111618042</v>
       </c>
       <c r="BX191" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:76">
-      <c r="A192" t="s">
-        <v>266</v>
+      <c r="A192">
+        <v>6980</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -44960,12 +44192,12 @@
         <v>0.9511555433273315</v>
       </c>
       <c r="BX192" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193" spans="1:76">
-      <c r="A193" t="s">
-        <v>267</v>
+      <c r="A193">
+        <v>2954</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -45187,12 +44419,12 @@
         <v>0.9705727696418762</v>
       </c>
       <c r="BX193" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="194" spans="1:76">
-      <c r="A194" t="s">
-        <v>268</v>
+      <c r="A194">
+        <v>1948</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -45414,12 +44646,12 @@
         <v>0.8878220319747925</v>
       </c>
       <c r="BX194" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="195" spans="1:76">
-      <c r="A195" t="s">
-        <v>269</v>
+      <c r="A195">
+        <v>3799</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -45641,12 +44873,12 @@
         <v>0.8612498641014099</v>
       </c>
       <c r="BX195" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="196" spans="1:76">
-      <c r="A196" t="s">
-        <v>270</v>
+      <c r="A196">
+        <v>6620</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -45868,12 +45100,12 @@
         <v>0.8972278833389282</v>
       </c>
       <c r="BX196" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:76">
-      <c r="A197" t="s">
-        <v>271</v>
+      <c r="A197">
+        <v>6971</v>
       </c>
       <c r="C197" t="b">
         <v>1</v>
@@ -46095,12 +45327,12 @@
         <v>0.8539832234382629</v>
       </c>
       <c r="BX197" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:76">
-      <c r="A198" t="s">
-        <v>272</v>
+      <c r="A198">
+        <v>2812</v>
       </c>
       <c r="C198" t="b">
         <v>1</v>
@@ -46322,12 +45554,12 @@
         <v>0.9823677539825439</v>
       </c>
       <c r="BX198" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="199" spans="1:76">
-      <c r="A199" t="s">
-        <v>273</v>
+      <c r="A199">
+        <v>5640</v>
       </c>
       <c r="C199" t="b">
         <v>0</v>
@@ -46549,12 +45781,12 @@
         <v>0.9973326921463013</v>
       </c>
       <c r="BX199" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:76">
-      <c r="A200" t="s">
-        <v>274</v>
+      <c r="A200">
+        <v>2875</v>
       </c>
       <c r="C200" t="b">
         <v>1</v>
@@ -46776,12 +46008,12 @@
         <v>0.8685489296913147</v>
       </c>
       <c r="BX200" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="201" spans="1:76">
-      <c r="A201" t="s">
-        <v>275</v>
+      <c r="A201">
+        <v>288</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -47003,12 +46235,12 @@
         <v>0.9684591293334961</v>
       </c>
       <c r="BX201" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:76">
-      <c r="A202" t="s">
-        <v>276</v>
+      <c r="A202">
+        <v>6936</v>
       </c>
       <c r="C202" t="b">
         <v>1</v>
@@ -47230,12 +46462,12 @@
         <v>0.9206672310829163</v>
       </c>
       <c r="BX202" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203" spans="1:76">
-      <c r="A203" t="s">
-        <v>277</v>
+      <c r="A203">
+        <v>6868</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -47457,12 +46689,12 @@
         <v>0.9478999972343445</v>
       </c>
       <c r="BX203" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:76">
-      <c r="A204" t="s">
-        <v>278</v>
+      <c r="A204">
+        <v>7001</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -47684,12 +46916,12 @@
         <v>0.9794799089431763</v>
       </c>
       <c r="BX204" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:76">
-      <c r="A205" t="s">
-        <v>279</v>
+      <c r="A205">
+        <v>4997</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -47911,12 +47143,12 @@
         <v>0.9019394516944885</v>
       </c>
       <c r="BX205" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:76">
-      <c r="A206" t="s">
-        <v>280</v>
+      <c r="A206">
+        <v>1577</v>
       </c>
       <c r="C206" t="b">
         <v>1</v>
@@ -48138,12 +47370,12 @@
         <v>0.982772171497345</v>
       </c>
       <c r="BX206" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:76">
-      <c r="A207" t="s">
-        <v>281</v>
+      <c r="A207">
+        <v>5724</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -48365,12 +47597,12 @@
         <v>0.8913334012031555</v>
       </c>
       <c r="BX207" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:76">
-      <c r="A208" t="s">
-        <v>282</v>
+      <c r="A208">
+        <v>13</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -48592,12 +47824,12 @@
         <v>0.9902151823043823</v>
       </c>
       <c r="BX208" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:76">
-      <c r="A209" t="s">
-        <v>283</v>
+      <c r="A209">
+        <v>954</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -48819,12 +48051,12 @@
         <v>0.9109871387481689</v>
       </c>
       <c r="BX209" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:76">
-      <c r="A210" t="s">
-        <v>284</v>
+      <c r="A210">
+        <v>3551</v>
       </c>
       <c r="C210" t="b">
         <v>0</v>
@@ -49046,12 +48278,12 @@
         <v>0.9769641757011414</v>
       </c>
       <c r="BX210" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:76">
-      <c r="A211" t="s">
-        <v>285</v>
+      <c r="A211">
+        <v>3917</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -49273,12 +48505,12 @@
         <v>0.881930947303772</v>
       </c>
       <c r="BX211" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:76">
-      <c r="A212" t="s">
-        <v>286</v>
+      <c r="A212">
+        <v>761</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -49500,12 +48732,12 @@
         <v>0.9192758202552795</v>
       </c>
       <c r="BX212" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:76">
-      <c r="A213" t="s">
-        <v>287</v>
+      <c r="A213">
+        <v>3188</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -49727,12 +48959,12 @@
         <v>0.9774781465530396</v>
       </c>
       <c r="BX213" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:76">
-      <c r="A214" t="s">
-        <v>288</v>
+      <c r="A214">
+        <v>3276</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -49954,12 +49186,12 @@
         <v>0.9973729848861694</v>
       </c>
       <c r="BX214" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:76">
-      <c r="A215" t="s">
-        <v>289</v>
+      <c r="A215">
+        <v>2577</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -50181,12 +49413,12 @@
         <v>0.9092018604278564</v>
       </c>
       <c r="BX215" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:76">
-      <c r="A216" t="s">
-        <v>290</v>
+      <c r="A216">
+        <v>3831</v>
       </c>
       <c r="C216" t="b">
         <v>1</v>
@@ -50408,12 +49640,12 @@
         <v>0.9823336601257324</v>
       </c>
       <c r="BX216" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:76">
-      <c r="A217" t="s">
-        <v>291</v>
+      <c r="A217">
+        <v>892</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -50635,12 +49867,12 @@
         <v>0.8002357482910156</v>
       </c>
       <c r="BX217" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:76">
-      <c r="A218" t="s">
-        <v>292</v>
+      <c r="A218">
+        <v>5658</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -50862,12 +50094,12 @@
         <v>0.8718565702438354</v>
       </c>
       <c r="BX218" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:76">
-      <c r="A219" t="s">
-        <v>293</v>
+      <c r="A219">
+        <v>5001</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -51089,12 +50321,12 @@
         <v>0.9654802680015564</v>
       </c>
       <c r="BX219" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:76">
-      <c r="A220" t="s">
-        <v>294</v>
+      <c r="A220">
+        <v>1621</v>
       </c>
       <c r="C220" t="b">
         <v>0</v>
@@ -51316,12 +50548,12 @@
         <v>0.8013544678688049</v>
       </c>
       <c r="BX220" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:76">
-      <c r="A221" t="s">
-        <v>295</v>
+      <c r="A221">
+        <v>6680</v>
       </c>
       <c r="C221" t="b">
         <v>0</v>
@@ -51543,12 +50775,12 @@
         <v>0.9941347241401672</v>
       </c>
       <c r="BX221" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:76">
-      <c r="A222" t="s">
-        <v>296</v>
+      <c r="A222">
+        <v>886</v>
       </c>
       <c r="C222" t="b">
         <v>0</v>
@@ -51770,12 +51002,12 @@
         <v>0.8110910058021545</v>
       </c>
       <c r="BX222" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:76">
-      <c r="A223" t="s">
-        <v>297</v>
+      <c r="A223">
+        <v>3212</v>
       </c>
       <c r="C223" t="b">
         <v>1</v>
@@ -51997,12 +51229,12 @@
         <v>0.895827054977417</v>
       </c>
       <c r="BX223" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:76">
-      <c r="A224" t="s">
-        <v>298</v>
+      <c r="A224">
+        <v>4458</v>
       </c>
       <c r="C224" t="b">
         <v>1</v>
@@ -52224,12 +51456,12 @@
         <v>0.8101161122322083</v>
       </c>
       <c r="BX224" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:76">
-      <c r="A225" t="s">
-        <v>299</v>
+      <c r="A225">
+        <v>3136</v>
       </c>
       <c r="C225" t="b">
         <v>0</v>
@@ -52451,12 +51683,12 @@
         <v>0.9609203934669495</v>
       </c>
       <c r="BX225" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:76">
-      <c r="A226" t="s">
-        <v>300</v>
+      <c r="A226">
+        <v>1579</v>
       </c>
       <c r="C226" t="b">
         <v>1</v>
@@ -52678,12 +51910,12 @@
         <v>0.9810863137245178</v>
       </c>
       <c r="BX226" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:76">
-      <c r="A227" t="s">
-        <v>301</v>
+      <c r="A227">
+        <v>3338</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
@@ -52905,12 +52137,12 @@
         <v>0.9680178165435791</v>
       </c>
       <c r="BX227" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:76">
-      <c r="A228" t="s">
-        <v>302</v>
+      <c r="A228">
+        <v>875</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
@@ -53132,12 +52364,12 @@
         <v>0.8604005575180054</v>
       </c>
       <c r="BX228" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:76">
-      <c r="A229" t="s">
-        <v>303</v>
+      <c r="A229">
+        <v>3000</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -53359,12 +52591,12 @@
         <v>0.8706865906715393</v>
       </c>
       <c r="BX229" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:76">
-      <c r="A230" t="s">
-        <v>304</v>
+      <c r="A230">
+        <v>2236</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -53586,12 +52818,12 @@
         <v>0.9687712788581848</v>
       </c>
       <c r="BX230" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:76">
-      <c r="A231" t="s">
-        <v>305</v>
+      <c r="A231">
+        <v>3159</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
@@ -53813,12 +53045,12 @@
         <v>0.8199536800384521</v>
       </c>
       <c r="BX231" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:76">
-      <c r="A232" t="s">
-        <v>306</v>
+      <c r="A232">
+        <v>5463</v>
       </c>
       <c r="C232" t="b">
         <v>1</v>
@@ -54040,12 +53272,12 @@
         <v>0.9951326251029968</v>
       </c>
       <c r="BX232" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:76">
-      <c r="A233" t="s">
-        <v>307</v>
+      <c r="A233">
+        <v>3885</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
@@ -54267,12 +53499,12 @@
         <v>0.8835223317146301</v>
       </c>
       <c r="BX233" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:76">
-      <c r="A234" t="s">
-        <v>308</v>
+      <c r="A234">
+        <v>4664</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -54494,12 +53726,12 @@
         <v>0.8755433559417725</v>
       </c>
       <c r="BX234" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:76">
-      <c r="A235" t="s">
-        <v>309</v>
+      <c r="A235">
+        <v>5718</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -54721,12 +53953,12 @@
         <v>0.983068585395813</v>
       </c>
       <c r="BX235" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:76">
-      <c r="A236" t="s">
-        <v>310</v>
+      <c r="A236">
+        <v>2361</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
@@ -54948,12 +54180,12 @@
         <v>0.9940475225448608</v>
       </c>
       <c r="BX236" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:76">
-      <c r="A237" t="s">
-        <v>311</v>
+      <c r="A237">
+        <v>834</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
@@ -55175,12 +54407,12 @@
         <v>0.9977433681488037</v>
       </c>
       <c r="BX237" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:76">
-      <c r="A238" t="s">
-        <v>312</v>
+      <c r="A238">
+        <v>2083</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
@@ -55402,12 +54634,12 @@
         <v>0.9857770800590515</v>
       </c>
       <c r="BX238" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:76">
-      <c r="A239" t="s">
-        <v>313</v>
+      <c r="A239">
+        <v>1111</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
@@ -55629,12 +54861,12 @@
         <v>0.9846624135971069</v>
       </c>
       <c r="BX239" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:76">
-      <c r="A240" t="s">
-        <v>314</v>
+      <c r="A240">
+        <v>5371</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
@@ -55856,12 +55088,12 @@
         <v>0.9626091122627258</v>
       </c>
       <c r="BX240" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:76">
-      <c r="A241" t="s">
-        <v>315</v>
+      <c r="A241">
+        <v>4621</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
@@ -56083,12 +55315,12 @@
         <v>0.8148321509361267</v>
       </c>
       <c r="BX241" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:76">
-      <c r="A242" t="s">
-        <v>316</v>
+      <c r="A242">
+        <v>4956</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
@@ -56310,12 +55542,12 @@
         <v>0.9930393099784851</v>
       </c>
       <c r="BX242" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:76">
-      <c r="A243" t="s">
-        <v>317</v>
+      <c r="A243">
+        <v>6186</v>
       </c>
       <c r="C243" t="b">
         <v>1</v>
@@ -56537,12 +55769,12 @@
         <v>0.9474164247512817</v>
       </c>
       <c r="BX243" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:76">
-      <c r="A244" t="s">
-        <v>318</v>
+      <c r="A244">
+        <v>293</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -56764,12 +55996,12 @@
         <v>0.8826733231544495</v>
       </c>
       <c r="BX244" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:76">
-      <c r="A245" t="s">
-        <v>319</v>
+      <c r="A245">
+        <v>730</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
@@ -56991,12 +56223,12 @@
         <v>0.8954770565032959</v>
       </c>
       <c r="BX245" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:76">
-      <c r="A246" t="s">
-        <v>320</v>
+      <c r="A246">
+        <v>6866</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -57218,12 +56450,12 @@
         <v>0.9967914223670959</v>
       </c>
       <c r="BX246" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="247" spans="1:76">
-      <c r="A247" t="s">
-        <v>321</v>
+      <c r="A247">
+        <v>6712</v>
       </c>
       <c r="C247" t="b">
         <v>1</v>
@@ -57445,12 +56677,12 @@
         <v>0.8299461007118225</v>
       </c>
       <c r="BX247" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:76">
-      <c r="A248" t="s">
-        <v>322</v>
+      <c r="A248">
+        <v>5984</v>
       </c>
       <c r="C248" t="b">
         <v>1</v>
@@ -57672,12 +56904,12 @@
         <v>0.9984954595565796</v>
       </c>
       <c r="BX248" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:76">
-      <c r="A249" t="s">
-        <v>323</v>
+      <c r="A249">
+        <v>2294</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -57899,12 +57131,12 @@
         <v>0.9915504455566406</v>
       </c>
       <c r="BX249" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:76">
-      <c r="A250" t="s">
-        <v>324</v>
+      <c r="A250">
+        <v>3458</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
@@ -58126,12 +57358,12 @@
         <v>0.991884708404541</v>
       </c>
       <c r="BX250" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:76">
-      <c r="A251" t="s">
-        <v>325</v>
+      <c r="A251">
+        <v>855</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
@@ -58353,12 +57585,12 @@
         <v>0.991425633430481</v>
       </c>
       <c r="BX251" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:76">
-      <c r="A252" t="s">
-        <v>326</v>
+      <c r="A252">
+        <v>3843</v>
       </c>
       <c r="C252" t="b">
         <v>1</v>
@@ -58580,12 +57812,12 @@
         <v>0.8156810998916626</v>
       </c>
       <c r="BX252" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:76">
-      <c r="A253" t="s">
-        <v>327</v>
+      <c r="A253">
+        <v>1065</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
@@ -58807,12 +58039,12 @@
         <v>0.9388732314109802</v>
       </c>
       <c r="BX253" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:76">
-      <c r="A254" t="s">
-        <v>328</v>
+      <c r="A254">
+        <v>389</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
@@ -59034,12 +58266,12 @@
         <v>0.947317898273468</v>
       </c>
       <c r="BX254" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="255" spans="1:76">
-      <c r="A255" t="s">
-        <v>329</v>
+      <c r="A255">
+        <v>524</v>
       </c>
       <c r="C255" t="b">
         <v>1</v>
@@ -59261,12 +58493,12 @@
         <v>0.9914703965187073</v>
       </c>
       <c r="BX255" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:76">
-      <c r="A256" t="s">
-        <v>330</v>
+      <c r="A256">
+        <v>3172</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
@@ -59488,12 +58720,12 @@
         <v>0.9868065714836121</v>
       </c>
       <c r="BX256" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:76">
-      <c r="A257" t="s">
-        <v>331</v>
+      <c r="A257">
+        <v>322</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
@@ -59715,7 +58947,7 @@
         <v>0.8627305626869202</v>
       </c>
       <c r="BX257" t="s">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
